--- a/run_log/run_results/train_history/training_history_run_7.xlsx
+++ b/run_log/run_results/train_history/training_history_run_7.xlsx
@@ -395,573 +395,573 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.05033877864480019</v>
+        <v>0.09389020502567291</v>
       </c>
       <c r="B2">
-        <v>0.9857762455940247</v>
+        <v>0.9777096509933472</v>
       </c>
       <c r="C2">
-        <v>0.004847122821956873</v>
+        <v>0.02287952229380608</v>
       </c>
       <c r="D2">
-        <v>0.9990940690040588</v>
+        <v>0.9943627715110779</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.008912822231650352</v>
+        <v>0.02444709837436676</v>
       </c>
       <c r="B3">
-        <v>0.9982303380966187</v>
+        <v>0.9978806972503662</v>
       </c>
       <c r="C3">
-        <v>0.002460915362462401</v>
+        <v>0.01488614827394485</v>
       </c>
       <c r="D3">
-        <v>0.999396026134491</v>
+        <v>0.998120903968811</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.004507288336753845</v>
+        <v>0.01320934575051069</v>
       </c>
       <c r="B4">
-        <v>0.9986063838005066</v>
+        <v>0.9981456398963928</v>
       </c>
       <c r="C4">
-        <v>0.0004433846916072071</v>
+        <v>0.01363444328308105</v>
       </c>
       <c r="D4">
-        <v>0.9998490214347839</v>
+        <v>0.9984477162361145</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.002423230558633804</v>
+        <v>0.008361239917576313</v>
       </c>
       <c r="B5">
-        <v>0.9993805885314941</v>
+        <v>0.9983726739883423</v>
       </c>
       <c r="C5">
-        <v>7.827105582691729E-05</v>
+        <v>0.07270972430706024</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.9754084944725037</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.001398860942572355</v>
+        <v>0.006124851759523153</v>
       </c>
       <c r="B6">
-        <v>0.9996460676193237</v>
+        <v>0.9985997676849365</v>
       </c>
       <c r="C6">
-        <v>4.992667527403682E-05</v>
+        <v>0.002859361469745636</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.998774528503418</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.000918110366910696</v>
+        <v>0.006062730215489864</v>
       </c>
       <c r="B7">
-        <v>0.9997566938400269</v>
+        <v>0.998505175113678</v>
       </c>
       <c r="C7">
-        <v>6.693312025163323E-05</v>
+        <v>0.002121088793501258</v>
       </c>
       <c r="D7">
-        <v>0.9999244809150696</v>
+        <v>0.9989379048347473</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.0008881469257175922</v>
+        <v>0.006021596491336823</v>
       </c>
       <c r="B8">
-        <v>0.9997124075889587</v>
+        <v>0.9984673261642456</v>
       </c>
       <c r="C8">
-        <v>0.0002677558804862201</v>
+        <v>0.002340758219361305</v>
       </c>
       <c r="D8">
-        <v>0.9998490214347839</v>
+        <v>0.998774528503418</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.0003658003697637469</v>
+        <v>0.005663695745170116</v>
       </c>
       <c r="B9">
-        <v>0.9999114871025085</v>
+        <v>0.9985240697860718</v>
       </c>
       <c r="C9">
-        <v>1.395662025061029E-06</v>
+        <v>0.00321565568447113</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.9989379048347473</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.0008510546176694334</v>
+        <v>0.004984347615391016</v>
       </c>
       <c r="B10">
-        <v>0.9997788071632385</v>
+        <v>0.9985619187355042</v>
       </c>
       <c r="C10">
-        <v>2.009138734138105E-05</v>
+        <v>0.002122032456099987</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.9989379048347473</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.0006001530564390123</v>
+        <v>0.004646725486963987</v>
       </c>
       <c r="B11">
-        <v>0.9998451471328735</v>
+        <v>0.9986565113067627</v>
       </c>
       <c r="C11">
-        <v>2.824737748596817E-06</v>
+        <v>0.003982760943472385</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.9989379048347473</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.000408382504247129</v>
+        <v>0.004548538941890001</v>
       </c>
       <c r="B12">
-        <v>0.9999114871025085</v>
+        <v>0.9986186623573303</v>
       </c>
       <c r="C12">
-        <v>4.421936239396018E-07</v>
+        <v>0.001969551201909781</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0.9989379048347473</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.0006805327720940113</v>
+        <v>0.004830501042306423</v>
       </c>
       <c r="B13">
-        <v>0.9998230338096619</v>
+        <v>0.9985429644584656</v>
       </c>
       <c r="C13">
-        <v>1.147504826803925E-05</v>
+        <v>0.002122444799169898</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0.9989379048347473</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.0003929871891159564</v>
+        <v>0.005139888729900122</v>
       </c>
       <c r="B14">
-        <v>0.9998893737792969</v>
+        <v>0.998505175113678</v>
       </c>
       <c r="C14">
-        <v>6.42677650830592E-06</v>
+        <v>0.02295811474323273</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0.9929738640785217</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.0006362022832036018</v>
+        <v>0.004468801431357861</v>
       </c>
       <c r="B15">
-        <v>0.9998009204864502</v>
+        <v>0.9986943602561951</v>
       </c>
       <c r="C15">
-        <v>8.770700077320726E-08</v>
+        <v>0.001441582222469151</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0.9989379048347473</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.0001434427977073938</v>
+        <v>0.004495252389460802</v>
       </c>
       <c r="B16">
-        <v>0.9999557733535767</v>
+        <v>0.998751163482666</v>
       </c>
       <c r="C16">
-        <v>1.180864401817416E-07</v>
+        <v>0.001996832434087992</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0.9990196228027344</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.0001532476453576237</v>
+        <v>0.004978906363248825</v>
       </c>
       <c r="B17">
-        <v>0.9999557733535767</v>
+        <v>0.9986565113067627</v>
       </c>
       <c r="C17">
-        <v>1.8712240489549E-05</v>
+        <v>0.001904443488456309</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0.9994280934333801</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>1.740385050652549E-05</v>
+        <v>0.005232904106378555</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0.9987700581550598</v>
       </c>
       <c r="C18">
-        <v>1.924343223436153E-06</v>
+        <v>0.001857162569649518</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0.9990196228027344</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.001006434205919504</v>
+        <v>0.004224963020533323</v>
       </c>
       <c r="B19">
-        <v>0.9997124075889587</v>
+        <v>0.9989971518516541</v>
       </c>
       <c r="C19">
-        <v>1.178883568542233E-08</v>
+        <v>0.00204593944363296</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0.9996731877326965</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.0002010065072681755</v>
+        <v>0.004253908526152372</v>
       </c>
       <c r="B20">
-        <v>0.9999114871025085</v>
+        <v>0.9989781975746155</v>
       </c>
       <c r="C20">
-        <v>4.751780746659051E-09</v>
+        <v>0.00197804975323379</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0.9996731877326965</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>0.0002117221156368032</v>
+        <v>0.004611051641404629</v>
       </c>
       <c r="B21">
-        <v>0.9999557733535767</v>
+        <v>0.9990160465240479</v>
       </c>
       <c r="C21">
-        <v>3.959816918808201E-09</v>
+        <v>0.001526396372355521</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0.9996731877326965</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>8.845759293762967E-05</v>
+        <v>0.004608353599905968</v>
       </c>
       <c r="B22">
-        <v>0.9999557733535767</v>
+        <v>0.9989971518516541</v>
       </c>
       <c r="C22">
-        <v>2.249902264495063E-09</v>
+        <v>0.002244416391476989</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0.9996731877326965</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.0002944637381006032</v>
+        <v>0.004847287200391293</v>
       </c>
       <c r="B23">
-        <v>0.9999114871025085</v>
+        <v>0.9989971518516541</v>
       </c>
       <c r="C23">
-        <v>5.165659011652224E-09</v>
+        <v>0.002315493067726493</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0.9995098114013672</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.0004823885683435947</v>
+        <v>0.005048518534749746</v>
       </c>
       <c r="B24">
-        <v>0.9998893737792969</v>
+        <v>0.9987322092056274</v>
       </c>
       <c r="C24">
-        <v>9.539610212883076E-10</v>
+        <v>0.002286312403157353</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0.9996731877326965</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>0.0005463182460516691</v>
+        <v>0.00383491488173604</v>
       </c>
       <c r="B25">
-        <v>0.9998672604560852</v>
+        <v>0.9991484880447388</v>
       </c>
       <c r="C25">
-        <v>1.259917237206309E-08</v>
+        <v>0.002175794914364815</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0.9996731877326965</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>4.029750562040135E-05</v>
+        <v>0.005678361281752586</v>
       </c>
       <c r="B26">
-        <v>0.9999778866767883</v>
+        <v>0.9988646507263184</v>
       </c>
       <c r="C26">
-        <v>2.618883110372394E-09</v>
+        <v>0.00106322206556797</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0.9998366236686707</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>3.962855771533214E-06</v>
+        <v>0.004518436267971992</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0.9990538954734802</v>
       </c>
       <c r="C27">
-        <v>5.840707029136638E-09</v>
+        <v>0.002096576150506735</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0.9996731877326965</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>0.0002703129721339792</v>
+        <v>0.003697582520544529</v>
       </c>
       <c r="B28">
-        <v>0.9999557733535767</v>
+        <v>0.9992809295654297</v>
       </c>
       <c r="C28">
-        <v>1.268944060939248E-09</v>
+        <v>0.001654272782616317</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0.9996731877326965</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>0.0002397396165179089</v>
+        <v>0.004185241181403399</v>
       </c>
       <c r="B29">
-        <v>0.999933660030365</v>
+        <v>0.9991863369941711</v>
       </c>
       <c r="C29">
-        <v>2.816854083320663E-09</v>
+        <v>0.001593250082805753</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0.9998366236686707</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.0004336941929068416</v>
+        <v>0.003962030634284019</v>
       </c>
       <c r="B30">
-        <v>0.9998672604560852</v>
+        <v>0.9992809295654297</v>
       </c>
       <c r="C30">
-        <v>4.769806771776075E-10</v>
+        <v>0.001081951893866062</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0.9995915293693542</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>0.000136488233692944</v>
+        <v>0.00411638617515564</v>
       </c>
       <c r="B31">
-        <v>0.9999778866767883</v>
+        <v>0.9992998838424683</v>
       </c>
       <c r="C31">
-        <v>1.016957185129286E-09</v>
+        <v>0.001442144624888897</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0.9995915293693542</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>0.000127561143017374</v>
+        <v>0.004763389937579632</v>
       </c>
       <c r="B32">
-        <v>0.9999778866767883</v>
+        <v>0.9992431402206421</v>
       </c>
       <c r="C32">
-        <v>4.850674972800562E-09</v>
+        <v>0.001249335240572691</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0.9996731877326965</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>0.0001666470925556496</v>
+        <v>0.004428584594279528</v>
       </c>
       <c r="B33">
-        <v>0.9999557733535767</v>
+        <v>0.9992241859436035</v>
       </c>
       <c r="C33">
-        <v>3.194817077556422E-09</v>
+        <v>0.00166610348969698</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0.9996731877326965</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>0.0002716113231144845</v>
+        <v>0.00376812880858779</v>
       </c>
       <c r="B34">
-        <v>0.9999557733535767</v>
+        <v>0.9993377327919006</v>
       </c>
       <c r="C34">
-        <v>7.739661134209541E-10</v>
+        <v>0.0007695319363847375</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0.9997549057006836</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>2.991649125760887E-06</v>
+        <v>0.004741899203509092</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0.9991484880447388</v>
       </c>
       <c r="C35">
-        <v>2.8798821660736E-10</v>
+        <v>0.001457889680750668</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0.9996731877326965</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>8.280181646114215E-05</v>
+        <v>0.004390857648104429</v>
       </c>
       <c r="B36">
-        <v>0.9999778866767883</v>
+        <v>0.9992620348930359</v>
       </c>
       <c r="C36">
-        <v>2.15991308172292E-10</v>
+        <v>0.001254474860616028</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0.9997549057006836</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>0.0001208446046803147</v>
+        <v>0.004552315920591354</v>
       </c>
       <c r="B37">
-        <v>0.9999557733535767</v>
+        <v>0.9992431402206421</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.002543745562434196</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0.9995915293693542</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>1.001586770144058E-05</v>
+        <v>0.00490929139778018</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0.999129593372345</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>0.002570071490481496</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0.9995915293693542</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>5.824636559736973E-07</v>
+        <v>0.004172834567725658</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0.9992809295654297</v>
       </c>
       <c r="C39">
-        <v>8.999643912044331E-12</v>
+        <v>0.002720575081184506</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0.9996731877326965</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>7.932332664495334E-06</v>
+        <v>0.00468365428969264</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0.9992052912712097</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>0.002715761307626963</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0.9996731877326965</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>1.045251906361955E-06</v>
+        <v>0.005102598108351231</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0.9992052912712097</v>
       </c>
       <c r="C41">
-        <v>4.499821348868949E-11</v>
+        <v>0.0007813895354047418</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0.9999182820320129</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>0.001176494173705578</v>
+        <v>0.004313069861382246</v>
       </c>
       <c r="B42">
-        <v>0.9998672604560852</v>
+        <v>0.9992620348930359</v>
       </c>
       <c r="C42">
-        <v>1.745924183005343E-09</v>
+        <v>0.0006634125020354986</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -969,27 +969,27 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>0.0001465795648982748</v>
+        <v>0.004116281401365995</v>
       </c>
       <c r="B43">
-        <v>0.9999557733535767</v>
+        <v>0.9993187785148621</v>
       </c>
       <c r="C43">
-        <v>3.509855739380896E-10</v>
+        <v>0.1140810921788216</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0.9838235378265381</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>0.0001221276761498302</v>
+        <v>0.004473397973924875</v>
       </c>
       <c r="B44">
-        <v>0.9999778866767883</v>
+        <v>0.9992241859436035</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>0.0007821788312867284</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -997,100 +997,100 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>0.0002731222193688154</v>
+        <v>0.004450363572686911</v>
       </c>
       <c r="B45">
-        <v>0.9999557733535767</v>
+        <v>0.9992241859436035</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>0.00222443975508213</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0.9996731877326965</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>0.0002629301161505282</v>
+        <v>0.00369930500164628</v>
       </c>
       <c r="B46">
-        <v>0.999933660030365</v>
+        <v>0.999375581741333</v>
       </c>
       <c r="C46">
-        <v>1.799928782408866E-11</v>
+        <v>0.002451557666063309</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0.9996731877326965</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>0.0003451252996455878</v>
+        <v>0.003945261240005493</v>
       </c>
       <c r="B47">
-        <v>0.999933660030365</v>
+        <v>0.9993566274642944</v>
       </c>
       <c r="C47">
-        <v>6.299750304750162E-11</v>
+        <v>0.002171063795685768</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0.9996731877326965</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>3.137362000416033E-05</v>
+        <v>0.006097278092056513</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0.9990349411964417</v>
       </c>
       <c r="C48">
-        <v>1.439942887149215E-10</v>
+        <v>0.001885453704744577</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0.9996731877326965</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>4.506335244514048E-06</v>
+        <v>0.003999381326138973</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>0.9993377327919006</v>
       </c>
       <c r="C49">
-        <v>1.799928400769701E-10</v>
+        <v>0.001836212119087577</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0.9996731877326965</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>4.218000526634569E-07</v>
+        <v>0.004657507874071598</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0.9990160465240479</v>
       </c>
       <c r="C50">
-        <v>1.619935435792641E-10</v>
+        <v>0.001600455143488944</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>0.9996731877326965</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>4.851943913308787E-07</v>
+        <v>0.004102061036974192</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>0.999072790145874</v>
       </c>
       <c r="C51">
-        <v>1.259949922172154E-10</v>
+        <v>0.001546047045849264</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>0.9997549057006836</v>
       </c>
     </row>
   </sheetData>

--- a/run_log/run_results/train_history/training_history_run_7.xlsx
+++ b/run_log/run_results/train_history/training_history_run_7.xlsx
@@ -395,573 +395,573 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.09389020502567291</v>
+        <v>0.07602548599243164</v>
       </c>
       <c r="B2">
-        <v>0.9777096509933472</v>
+        <v>0.9771606922149658</v>
       </c>
       <c r="C2">
-        <v>0.02287952229380608</v>
+        <v>0.07422774285078049</v>
       </c>
       <c r="D2">
-        <v>0.9943627715110779</v>
+        <v>0.9905523061752319</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.02444709837436676</v>
+        <v>0.01085434574633837</v>
       </c>
       <c r="B3">
-        <v>0.9978806972503662</v>
+        <v>0.9985154271125793</v>
       </c>
       <c r="C3">
-        <v>0.01488614827394485</v>
+        <v>0.06154094636440277</v>
       </c>
       <c r="D3">
-        <v>0.998120903968811</v>
+        <v>0.9905523061752319</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.01320934575051069</v>
+        <v>0.007147168274968863</v>
       </c>
       <c r="B4">
-        <v>0.9981456398963928</v>
+        <v>0.998629629611969</v>
       </c>
       <c r="C4">
-        <v>0.01363444328308105</v>
+        <v>0.03475822880864143</v>
       </c>
       <c r="D4">
-        <v>0.9984477162361145</v>
+        <v>0.9934592843055725</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.008361239917576313</v>
+        <v>0.004885368049144745</v>
       </c>
       <c r="B5">
-        <v>0.9983726739883423</v>
+        <v>0.9989722371101379</v>
       </c>
       <c r="C5">
-        <v>0.07270972430706024</v>
+        <v>0.007020926102995872</v>
       </c>
       <c r="D5">
-        <v>0.9754084944725037</v>
+        <v>0.9978197813034058</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.006124851759523153</v>
+        <v>0.001769306254573166</v>
       </c>
       <c r="B6">
-        <v>0.9985997676849365</v>
+        <v>0.9995431900024414</v>
       </c>
       <c r="C6">
-        <v>0.002859361469745636</v>
+        <v>0.009036371484398842</v>
       </c>
       <c r="D6">
-        <v>0.998774528503418</v>
+        <v>0.9985465407371521</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.006062730215489864</v>
+        <v>0.002138434210792184</v>
       </c>
       <c r="B7">
-        <v>0.998505175113678</v>
+        <v>0.9995431900024414</v>
       </c>
       <c r="C7">
-        <v>0.002121088793501258</v>
+        <v>0.00184949766844511</v>
       </c>
       <c r="D7">
-        <v>0.9989379048347473</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.006021596491336823</v>
+        <v>0.001323148841038346</v>
       </c>
       <c r="B8">
-        <v>0.9984673261642456</v>
+        <v>0.9997525811195374</v>
       </c>
       <c r="C8">
-        <v>0.002340758219361305</v>
+        <v>0.00133598071988672</v>
       </c>
       <c r="D8">
-        <v>0.998774528503418</v>
+        <v>0.9992732405662537</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.005663695745170116</v>
+        <v>0.001217141398228705</v>
       </c>
       <c r="B9">
-        <v>0.9985240697860718</v>
+        <v>0.9996764659881592</v>
       </c>
       <c r="C9">
-        <v>0.00321565568447113</v>
+        <v>7.343779725488275E-05</v>
       </c>
       <c r="D9">
-        <v>0.9989379048347473</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.004984347615391016</v>
+        <v>0.0007175981299951673</v>
       </c>
       <c r="B10">
-        <v>0.9985619187355042</v>
+        <v>0.9998286962509155</v>
       </c>
       <c r="C10">
-        <v>0.002122032456099987</v>
+        <v>0.000195938817341812</v>
       </c>
       <c r="D10">
-        <v>0.9989379048347473</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.004646725486963987</v>
+        <v>0.001031169202178717</v>
       </c>
       <c r="B11">
-        <v>0.9986565113067627</v>
+        <v>0.9997715950012207</v>
       </c>
       <c r="C11">
-        <v>0.003982760943472385</v>
+        <v>2.48798151005758E-05</v>
       </c>
       <c r="D11">
-        <v>0.9989379048347473</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.004548538941890001</v>
+        <v>0.0007697513210587204</v>
       </c>
       <c r="B12">
-        <v>0.9986186623573303</v>
+        <v>0.9998096823692322</v>
       </c>
       <c r="C12">
-        <v>0.001969551201909781</v>
+        <v>4.395343785290606E-05</v>
       </c>
       <c r="D12">
-        <v>0.9989379048347473</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.004830501042306423</v>
+        <v>0.0005132107180543244</v>
       </c>
       <c r="B13">
-        <v>0.9985429644584656</v>
+        <v>0.9998857975006104</v>
       </c>
       <c r="C13">
-        <v>0.002122444799169898</v>
+        <v>6.74099328534794E-06</v>
       </c>
       <c r="D13">
-        <v>0.9989379048347473</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.005139888729900122</v>
+        <v>0.0006111887050792575</v>
       </c>
       <c r="B14">
-        <v>0.998505175113678</v>
+        <v>0.9998286962509155</v>
       </c>
       <c r="C14">
-        <v>0.02295811474323273</v>
+        <v>0.004253774415701628</v>
       </c>
       <c r="D14">
-        <v>0.9929738640785217</v>
+        <v>0.9985465407371521</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.004468801431357861</v>
+        <v>0.001032147789373994</v>
       </c>
       <c r="B15">
-        <v>0.9986943602561951</v>
+        <v>0.9997144937515259</v>
       </c>
       <c r="C15">
-        <v>0.001441582222469151</v>
+        <v>1.950105070136487E-05</v>
       </c>
       <c r="D15">
-        <v>0.9989379048347473</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.004495252389460802</v>
+        <v>0.0003594239242374897</v>
       </c>
       <c r="B16">
-        <v>0.998751163482666</v>
+        <v>0.9999048113822937</v>
       </c>
       <c r="C16">
-        <v>0.001996832434087992</v>
+        <v>1.457721054975991E-06</v>
       </c>
       <c r="D16">
-        <v>0.9990196228027344</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.004978906363248825</v>
+        <v>0.0006362181156873703</v>
       </c>
       <c r="B17">
-        <v>0.9986565113067627</v>
+        <v>0.9997715950012207</v>
       </c>
       <c r="C17">
-        <v>0.001904443488456309</v>
+        <v>1.725155743770301E-05</v>
       </c>
       <c r="D17">
-        <v>0.9994280934333801</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.005232904106378555</v>
+        <v>0.0001598382368683815</v>
       </c>
       <c r="B18">
-        <v>0.9987700581550598</v>
+        <v>0.9999428987503052</v>
       </c>
       <c r="C18">
-        <v>0.001857162569649518</v>
+        <v>3.314510649943259E-06</v>
       </c>
       <c r="D18">
-        <v>0.9990196228027344</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.004224963020533323</v>
+        <v>0.0006894905818626285</v>
       </c>
       <c r="B19">
-        <v>0.9989971518516541</v>
+        <v>0.9998857975006104</v>
       </c>
       <c r="C19">
-        <v>0.00204593944363296</v>
+        <v>6.918030521774199E-06</v>
       </c>
       <c r="D19">
-        <v>0.9996731877326965</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.004253908526152372</v>
+        <v>0.00113664660602808</v>
       </c>
       <c r="B20">
-        <v>0.9989781975746155</v>
+        <v>0.9998096823692322</v>
       </c>
       <c r="C20">
-        <v>0.00197804975323379</v>
+        <v>3.852990630548447E-06</v>
       </c>
       <c r="D20">
-        <v>0.9996731877326965</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>0.004611051641404629</v>
+        <v>9.051190863829106E-05</v>
       </c>
       <c r="B21">
-        <v>0.9990160465240479</v>
+        <v>0.9999619126319885</v>
       </c>
       <c r="C21">
-        <v>0.001526396372355521</v>
+        <v>1.272373992833309E-06</v>
       </c>
       <c r="D21">
-        <v>0.9996731877326965</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.004608353599905968</v>
+        <v>0.0002641715691424906</v>
       </c>
       <c r="B22">
-        <v>0.9989971518516541</v>
+        <v>0.9999809861183167</v>
       </c>
       <c r="C22">
-        <v>0.002244416391476989</v>
+        <v>2.372712060605409E-06</v>
       </c>
       <c r="D22">
-        <v>0.9996731877326965</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.004847287200391293</v>
+        <v>0.0005599940195679665</v>
       </c>
       <c r="B23">
-        <v>0.9989971518516541</v>
+        <v>0.999866783618927</v>
       </c>
       <c r="C23">
-        <v>0.002315493067726493</v>
+        <v>4.178047220193548E-06</v>
       </c>
       <c r="D23">
-        <v>0.9995098114013672</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.005048518534749746</v>
+        <v>0.000627832196187228</v>
       </c>
       <c r="B24">
-        <v>0.9987322092056274</v>
+        <v>0.9998857975006104</v>
       </c>
       <c r="C24">
-        <v>0.002286312403157353</v>
+        <v>8.909722964745015E-06</v>
       </c>
       <c r="D24">
-        <v>0.9996731877326965</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>0.00383491488173604</v>
+        <v>0.0002438678930047899</v>
       </c>
       <c r="B25">
-        <v>0.9991484880447388</v>
+        <v>0.9999428987503052</v>
       </c>
       <c r="C25">
-        <v>0.002175794914364815</v>
+        <v>8.888677984941751E-05</v>
       </c>
       <c r="D25">
-        <v>0.9996731877326965</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>0.005678361281752586</v>
+        <v>0.0009342542034573853</v>
       </c>
       <c r="B26">
-        <v>0.9988646507263184</v>
+        <v>0.9997715950012207</v>
       </c>
       <c r="C26">
-        <v>0.00106322206556797</v>
+        <v>2.084785410261247E-05</v>
       </c>
       <c r="D26">
-        <v>0.9998366236686707</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>0.004518436267971992</v>
+        <v>0.0001685831375652924</v>
       </c>
       <c r="B27">
-        <v>0.9990538954734802</v>
+        <v>0.9999238848686218</v>
       </c>
       <c r="C27">
-        <v>0.002096576150506735</v>
+        <v>1.92800671356963E-05</v>
       </c>
       <c r="D27">
-        <v>0.9996731877326965</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>0.003697582520544529</v>
+        <v>0.0003457276325207204</v>
       </c>
       <c r="B28">
-        <v>0.9992809295654297</v>
+        <v>0.9998857975006104</v>
       </c>
       <c r="C28">
-        <v>0.001654272782616317</v>
+        <v>0.0001156580838141963</v>
       </c>
       <c r="D28">
-        <v>0.9996731877326965</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>0.004185241181403399</v>
+        <v>0.0001903246011352167</v>
       </c>
       <c r="B29">
-        <v>0.9991863369941711</v>
+        <v>0.9999428987503052</v>
       </c>
       <c r="C29">
-        <v>0.001593250082805753</v>
+        <v>5.260014222585596E-05</v>
       </c>
       <c r="D29">
-        <v>0.9998366236686707</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.003962030634284019</v>
+        <v>0.000285543326754123</v>
       </c>
       <c r="B30">
-        <v>0.9992809295654297</v>
+        <v>0.9999048113822937</v>
       </c>
       <c r="C30">
-        <v>0.001081951893866062</v>
+        <v>0.00164121063426137</v>
       </c>
       <c r="D30">
-        <v>0.9995915293693542</v>
+        <v>0.9992732405662537</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>0.00411638617515564</v>
+        <v>7.938235648907721E-05</v>
       </c>
       <c r="B31">
-        <v>0.9992998838424683</v>
+        <v>0.9999809861183167</v>
       </c>
       <c r="C31">
-        <v>0.001442144624888897</v>
+        <v>1.75736549863359E-05</v>
       </c>
       <c r="D31">
-        <v>0.9995915293693542</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>0.004763389937579632</v>
+        <v>0.0004082358500454575</v>
       </c>
       <c r="B32">
-        <v>0.9992431402206421</v>
+        <v>0.9998857975006104</v>
       </c>
       <c r="C32">
-        <v>0.001249335240572691</v>
+        <v>3.535087898853817E-06</v>
       </c>
       <c r="D32">
-        <v>0.9996731877326965</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>0.004428584594279528</v>
+        <v>0.0006414633826352656</v>
       </c>
       <c r="B33">
-        <v>0.9992241859436035</v>
+        <v>0.9999048113822937</v>
       </c>
       <c r="C33">
-        <v>0.00166610348969698</v>
+        <v>1.747312921906996E-06</v>
       </c>
       <c r="D33">
-        <v>0.9996731877326965</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>0.00376812880858779</v>
+        <v>0.0007026436505839229</v>
       </c>
       <c r="B34">
-        <v>0.9993377327919006</v>
+        <v>0.9998857975006104</v>
       </c>
       <c r="C34">
-        <v>0.0007695319363847375</v>
+        <v>3.376153927092673E-06</v>
       </c>
       <c r="D34">
-        <v>0.9997549057006836</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>0.004741899203509092</v>
+        <v>0.0006924913031980395</v>
       </c>
       <c r="B35">
-        <v>0.9991484880447388</v>
+        <v>0.9998477101325989</v>
       </c>
       <c r="C35">
-        <v>0.001457889680750668</v>
+        <v>0.0001846192753873765</v>
       </c>
       <c r="D35">
-        <v>0.9996731877326965</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>0.004390857648104429</v>
+        <v>0.0002042878477368504</v>
       </c>
       <c r="B36">
-        <v>0.9992620348930359</v>
+        <v>0.9999428987503052</v>
       </c>
       <c r="C36">
-        <v>0.001254474860616028</v>
+        <v>0.0001047378609655425</v>
       </c>
       <c r="D36">
-        <v>0.9997549057006836</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>0.004552315920591354</v>
+        <v>7.083082891767845E-05</v>
       </c>
       <c r="B37">
-        <v>0.9992431402206421</v>
+        <v>0.9999809861183167</v>
       </c>
       <c r="C37">
-        <v>0.002543745562434196</v>
+        <v>4.839326265937416E-06</v>
       </c>
       <c r="D37">
-        <v>0.9995915293693542</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>0.00490929139778018</v>
+        <v>2.744052835623734E-05</v>
       </c>
       <c r="B38">
-        <v>0.999129593372345</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>0.002570071490481496</v>
+        <v>7.846702487768198E-07</v>
       </c>
       <c r="D38">
-        <v>0.9995915293693542</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>0.004172834567725658</v>
+        <v>1.691205943643581E-05</v>
       </c>
       <c r="B39">
-        <v>0.9992809295654297</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>0.002720575081184506</v>
+        <v>1.206733628578149E-07</v>
       </c>
       <c r="D39">
-        <v>0.9996731877326965</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>0.00468365428969264</v>
+        <v>0.0002056228258879855</v>
       </c>
       <c r="B40">
-        <v>0.9992052912712097</v>
+        <v>0.9999238848686218</v>
       </c>
       <c r="C40">
-        <v>0.002715761307626963</v>
+        <v>0.0006103392806835473</v>
       </c>
       <c r="D40">
-        <v>0.9996731877326965</v>
+        <v>0.9992732405662537</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>0.005102598108351231</v>
+        <v>0.0004009988042525947</v>
       </c>
       <c r="B41">
-        <v>0.9992052912712097</v>
+        <v>0.9999048113822937</v>
       </c>
       <c r="C41">
-        <v>0.0007813895354047418</v>
+        <v>3.483045475149993E-06</v>
       </c>
       <c r="D41">
-        <v>0.9999182820320129</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>0.004313069861382246</v>
+        <v>0.0002500255068298429</v>
       </c>
       <c r="B42">
-        <v>0.9992620348930359</v>
+        <v>0.9999619126319885</v>
       </c>
       <c r="C42">
-        <v>0.0006634125020354986</v>
+        <v>2.537660066082026E-06</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -969,27 +969,27 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>0.004116281401365995</v>
+        <v>8.227544458350167E-05</v>
       </c>
       <c r="B43">
-        <v>0.9993187785148621</v>
+        <v>0.9999809861183167</v>
       </c>
       <c r="C43">
-        <v>0.1140810921788216</v>
+        <v>5.638419224851532E-07</v>
       </c>
       <c r="D43">
-        <v>0.9838235378265381</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>0.004473397973924875</v>
+        <v>2.270457298436668E-05</v>
       </c>
       <c r="B44">
-        <v>0.9992241859436035</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>0.0007821788312867284</v>
+        <v>8.767211312488143E-08</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -997,100 +997,100 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>0.004450363572686911</v>
+        <v>0.0004820745089091361</v>
       </c>
       <c r="B45">
-        <v>0.9992241859436035</v>
+        <v>0.9999428987503052</v>
       </c>
       <c r="C45">
-        <v>0.00222443975508213</v>
+        <v>1.518641283837496E-07</v>
       </c>
       <c r="D45">
-        <v>0.9996731877326965</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>0.00369930500164628</v>
+        <v>0.0001530785812065005</v>
       </c>
       <c r="B46">
-        <v>0.999375581741333</v>
+        <v>0.9999428987503052</v>
       </c>
       <c r="C46">
-        <v>0.002451557666063309</v>
+        <v>2.28959137871243E-07</v>
       </c>
       <c r="D46">
-        <v>0.9996731877326965</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>0.003945261240005493</v>
+        <v>0.0008504717843607068</v>
       </c>
       <c r="B47">
-        <v>0.9993566274642944</v>
+        <v>0.9999238848686218</v>
       </c>
       <c r="C47">
-        <v>0.002171063795685768</v>
+        <v>3.12010740799451E-07</v>
       </c>
       <c r="D47">
-        <v>0.9996731877326965</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>0.006097278092056513</v>
+        <v>0.000341077073244378</v>
       </c>
       <c r="B48">
-        <v>0.9990349411964417</v>
+        <v>0.9999619126319885</v>
       </c>
       <c r="C48">
-        <v>0.001885453704744577</v>
+        <v>4.823482981919369E-07</v>
       </c>
       <c r="D48">
-        <v>0.9996731877326965</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>0.003999381326138973</v>
+        <v>8.52015073178336E-05</v>
       </c>
       <c r="B49">
-        <v>0.9993377327919006</v>
+        <v>0.9999428987503052</v>
       </c>
       <c r="C49">
-        <v>0.001836212119087577</v>
+        <v>3.638583834231213E-08</v>
       </c>
       <c r="D49">
-        <v>0.9996731877326965</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>0.004657507874071598</v>
+        <v>7.497555634472519E-05</v>
       </c>
       <c r="B50">
-        <v>0.9990160465240479</v>
+        <v>0.9999619126319885</v>
       </c>
       <c r="C50">
-        <v>0.001600455143488944</v>
+        <v>2.746278227050425E-08</v>
       </c>
       <c r="D50">
-        <v>0.9996731877326965</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>0.004102061036974192</v>
+        <v>0.0002182240859838203</v>
       </c>
       <c r="B51">
-        <v>0.999072790145874</v>
+        <v>0.9999048113822937</v>
       </c>
       <c r="C51">
-        <v>0.001546047045849264</v>
+        <v>0.0002710481639951468</v>
       </c>
       <c r="D51">
-        <v>0.9997549057006836</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/run_log/run_results/train_history/training_history_run_7.xlsx
+++ b/run_log/run_results/train_history/training_history_run_7.xlsx
@@ -395,702 +395,702 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.07602548599243164</v>
+        <v>0.06430843472480774</v>
       </c>
       <c r="B2">
-        <v>0.9771606922149658</v>
+        <v>0.9817928075790405</v>
       </c>
       <c r="C2">
-        <v>0.07422774285078049</v>
+        <v>0.1682728081941605</v>
       </c>
       <c r="D2">
-        <v>0.9905523061752319</v>
+        <v>0.9220559597015381</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.01085434574633837</v>
+        <v>0.01029054820537567</v>
       </c>
       <c r="B3">
-        <v>0.9985154271125793</v>
+        <v>0.998230516910553</v>
       </c>
       <c r="C3">
-        <v>0.06154094636440277</v>
+        <v>0.07607636600732803</v>
       </c>
       <c r="D3">
-        <v>0.9905523061752319</v>
+        <v>0.9603598713874817</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.007147168274968863</v>
+        <v>0.005895404145121574</v>
       </c>
       <c r="B4">
-        <v>0.998629629611969</v>
+        <v>0.9984866380691528</v>
       </c>
       <c r="C4">
-        <v>0.03475822880864143</v>
+        <v>0.06404083967208862</v>
       </c>
       <c r="D4">
-        <v>0.9934592843055725</v>
+        <v>0.9717620015144348</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.004885368049144745</v>
+        <v>0.002480259397998452</v>
       </c>
       <c r="B5">
-        <v>0.9989722371101379</v>
+        <v>0.999371349811554</v>
       </c>
       <c r="C5">
-        <v>0.007020926102995872</v>
+        <v>0.03020020946860313</v>
       </c>
       <c r="D5">
-        <v>0.9978197813034058</v>
+        <v>0.9926955103874207</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.001769306254573166</v>
+        <v>0.001659055822528899</v>
       </c>
       <c r="B6">
-        <v>0.9995431900024414</v>
+        <v>0.9996041655540466</v>
       </c>
       <c r="C6">
-        <v>0.009036371484398842</v>
+        <v>0.036944430321455</v>
       </c>
       <c r="D6">
-        <v>0.9985465407371521</v>
+        <v>0.9891323447227478</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.002138434210792184</v>
+        <v>0.001108076306991279</v>
       </c>
       <c r="B7">
-        <v>0.9995431900024414</v>
+        <v>0.9997206330299377</v>
       </c>
       <c r="C7">
-        <v>0.00184949766844511</v>
+        <v>0.006993710063397884</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.9992873668670654</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.001323148841038346</v>
+        <v>0.001555933384224772</v>
       </c>
       <c r="B8">
-        <v>0.9997525811195374</v>
+        <v>0.9996274709701538</v>
       </c>
       <c r="C8">
-        <v>0.00133598071988672</v>
+        <v>0.07404659688472748</v>
       </c>
       <c r="D8">
-        <v>0.9992732405662537</v>
+        <v>0.9722073674201965</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.001217141398228705</v>
+        <v>0.001035849447362125</v>
       </c>
       <c r="B9">
-        <v>0.9996764659881592</v>
+        <v>0.9997438788414001</v>
       </c>
       <c r="C9">
-        <v>7.343779725488275E-05</v>
+        <v>0.04312290251255035</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.9770176410675049</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.0007175981299951673</v>
+        <v>0.001184522756375372</v>
       </c>
       <c r="B10">
-        <v>0.9998286962509155</v>
+        <v>0.9997206330299377</v>
       </c>
       <c r="C10">
-        <v>0.000195938817341812</v>
+        <v>0.01034195721149445</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.9982184171676636</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.001031169202178717</v>
+        <v>0.000480839895317331</v>
       </c>
       <c r="B11">
-        <v>0.9997715950012207</v>
+        <v>0.9998602867126465</v>
       </c>
       <c r="C11">
-        <v>2.48798151005758E-05</v>
+        <v>0.04988864064216614</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.9836985468864441</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.0007697513210587204</v>
+        <v>0.0008925613365136087</v>
       </c>
       <c r="B12">
-        <v>0.9998096823692322</v>
+        <v>0.9998370409011841</v>
       </c>
       <c r="C12">
-        <v>4.395343785290606E-05</v>
+        <v>0.1782244443893433</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0.9297167062759399</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.0005132107180543244</v>
+        <v>0.000338803103659302</v>
       </c>
       <c r="B13">
-        <v>0.9998857975006104</v>
+        <v>0.9999068975448608</v>
       </c>
       <c r="C13">
-        <v>6.74099328534794E-06</v>
+        <v>0.2251095473766327</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0.933368980884552</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.0006111887050792575</v>
+        <v>0.000606511312071234</v>
       </c>
       <c r="B14">
-        <v>0.9998286962509155</v>
+        <v>0.9997904300689697</v>
       </c>
       <c r="C14">
-        <v>0.004253774415701628</v>
+        <v>0.08357534557580948</v>
       </c>
       <c r="D14">
-        <v>0.9985465407371521</v>
+        <v>0.9754142165184021</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.001032147789373994</v>
+        <v>0.0005029302556067705</v>
       </c>
       <c r="B15">
-        <v>0.9997144937515259</v>
+        <v>0.9998370409011841</v>
       </c>
       <c r="C15">
-        <v>1.950105070136487E-05</v>
+        <v>0.04891286417841911</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0.9712275266647339</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.0003594239242374897</v>
+        <v>0.0003233772586099803</v>
       </c>
       <c r="B16">
-        <v>0.9999048113822937</v>
+        <v>0.9999068975448608</v>
       </c>
       <c r="C16">
-        <v>1.457721054975991E-06</v>
+        <v>0.09727617353200912</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0.9589346051216125</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.0006362181156873703</v>
+        <v>0.0001811326656024903</v>
       </c>
       <c r="B17">
-        <v>0.9997715950012207</v>
+        <v>0.9999534487724304</v>
       </c>
       <c r="C17">
-        <v>1.725155743770301E-05</v>
+        <v>0.5239173173904419</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0.9210760593414307</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.0001598382368683815</v>
+        <v>0.001151273492723703</v>
       </c>
       <c r="B18">
-        <v>0.9999428987503052</v>
+        <v>0.9997206330299377</v>
       </c>
       <c r="C18">
-        <v>3.314510649943259E-06</v>
+        <v>0.01319500431418419</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0.9947443604469299</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.0006894905818626285</v>
+        <v>3.1709252652945E-05</v>
       </c>
       <c r="B19">
-        <v>0.9998857975006104</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>6.918030521774199E-06</v>
+        <v>0.02498102746903896</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0.9927846193313599</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.00113664660602808</v>
+        <v>0.0006060707964934409</v>
       </c>
       <c r="B20">
-        <v>0.9998096823692322</v>
+        <v>0.9998602867126465</v>
       </c>
       <c r="C20">
-        <v>3.852990630548447E-06</v>
+        <v>0.04773042351007462</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0.9916265606880188</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>9.051190863829106E-05</v>
+        <v>0.0003361108538229018</v>
       </c>
       <c r="B21">
-        <v>0.9999619126319885</v>
+        <v>0.9999301433563232</v>
       </c>
       <c r="C21">
-        <v>1.272373992833309E-06</v>
+        <v>0.02034757845103741</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0.9937644600868225</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.0002641715691424906</v>
+        <v>0.0002420740784145892</v>
       </c>
       <c r="B22">
-        <v>0.9999809861183167</v>
+        <v>0.9999068975448608</v>
       </c>
       <c r="C22">
-        <v>2.372712060605409E-06</v>
+        <v>0.01323843933641911</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0.9981293678283691</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.0005599940195679665</v>
+        <v>0.0004544209514278919</v>
       </c>
       <c r="B23">
-        <v>0.999866783618927</v>
+        <v>0.9999068975448608</v>
       </c>
       <c r="C23">
-        <v>4.178047220193548E-06</v>
+        <v>0.01054247654974461</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0.9967931509017944</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.000627832196187228</v>
+        <v>0.0002120501449098811</v>
       </c>
       <c r="B24">
-        <v>0.9998857975006104</v>
+        <v>0.9999534487724304</v>
       </c>
       <c r="C24">
-        <v>8.909722964745015E-06</v>
+        <v>0.04884923249483109</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0.9755033254623413</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>0.0002438678930047899</v>
+        <v>0.0002107933833030984</v>
       </c>
       <c r="B25">
-        <v>0.9999428987503052</v>
+        <v>0.9999068975448608</v>
       </c>
       <c r="C25">
-        <v>8.888677984941751E-05</v>
+        <v>0.03461636230349541</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0.9844111800193787</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>0.0009342542034573853</v>
+        <v>0.0001322500174865127</v>
       </c>
       <c r="B26">
-        <v>0.9997715950012207</v>
+        <v>0.9999534487724304</v>
       </c>
       <c r="C26">
-        <v>2.084785410261247E-05</v>
+        <v>0.003626617603003979</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0.9984856843948364</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>0.0001685831375652924</v>
+        <v>0.0004938208730891347</v>
       </c>
       <c r="B27">
-        <v>0.9999238848686218</v>
+        <v>0.9998602867126465</v>
       </c>
       <c r="C27">
-        <v>1.92800671356963E-05</v>
+        <v>0.1122124865651131</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0.9405843615531921</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>0.0003457276325207204</v>
+        <v>0.0004936656914651394</v>
       </c>
       <c r="B28">
-        <v>0.9998857975006104</v>
+        <v>0.9999301433563232</v>
       </c>
       <c r="C28">
-        <v>0.0001156580838141963</v>
+        <v>0.03752052411437035</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0.9877961874008179</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>0.0001903246011352167</v>
+        <v>5.018249794375151E-05</v>
       </c>
       <c r="B29">
-        <v>0.9999428987503052</v>
+        <v>0.9999766945838928</v>
       </c>
       <c r="C29">
-        <v>5.260014222585596E-05</v>
+        <v>0.1134463474154472</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0.9443256855010986</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.000285543326754123</v>
+        <v>0.0004552112077362835</v>
       </c>
       <c r="B30">
-        <v>0.9999048113822937</v>
+        <v>0.9999068975448608</v>
       </c>
       <c r="C30">
-        <v>0.00164121063426137</v>
+        <v>0.03929530456662178</v>
       </c>
       <c r="D30">
-        <v>0.9992732405662537</v>
+        <v>0.9926955103874207</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>7.938235648907721E-05</v>
+        <v>0.0001059204005287029</v>
       </c>
       <c r="B31">
-        <v>0.9999809861183167</v>
+        <v>0.9999534487724304</v>
       </c>
       <c r="C31">
-        <v>1.75736549863359E-05</v>
+        <v>0.0772145539522171</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0.9837876558303833</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>0.0004082358500454575</v>
+        <v>5.000036617275327E-05</v>
       </c>
       <c r="B32">
-        <v>0.9998857975006104</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>3.535087898853817E-06</v>
+        <v>0.02384382672607899</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0.9941207766532898</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>0.0006414633826352656</v>
+        <v>6.125530489953235E-06</v>
       </c>
       <c r="B33">
-        <v>0.9999048113822937</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>1.747312921906996E-06</v>
+        <v>0.04749710485339165</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0.9927846193313599</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>0.0007026436505839229</v>
+        <v>3.625395402195863E-05</v>
       </c>
       <c r="B34">
-        <v>0.9998857975006104</v>
+        <v>0.9999766945838928</v>
       </c>
       <c r="C34">
-        <v>3.376153927092673E-06</v>
+        <v>0.03064015135169029</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0.9920719861984253</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>0.0006924913031980395</v>
+        <v>0.0002965771127492189</v>
       </c>
       <c r="B35">
-        <v>0.9998477101325989</v>
+        <v>0.9999766945838928</v>
       </c>
       <c r="C35">
-        <v>0.0001846192753873765</v>
+        <v>0.001772635034285486</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0.9993764758110046</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>0.0002042878477368504</v>
+        <v>0.0004728272324427962</v>
       </c>
       <c r="B36">
-        <v>0.9999428987503052</v>
+        <v>0.9998835921287537</v>
       </c>
       <c r="C36">
-        <v>0.0001047378609655425</v>
+        <v>0.001001277123577893</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0.9998218417167664</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>7.083082891767845E-05</v>
+        <v>1.894428169180173E-05</v>
       </c>
       <c r="B37">
-        <v>0.9999809861183167</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>4.839326265937416E-06</v>
+        <v>0.0007723688031546772</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0.9999109506607056</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>2.744052835623734E-05</v>
+        <v>0.00013053446309641</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0.9999534487724304</v>
       </c>
       <c r="C38">
-        <v>7.846702487768198E-07</v>
+        <v>0.1395634263753891</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0.9566185474395752</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>1.691205943643581E-05</v>
+        <v>0.0003434133250266314</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0.9999068975448608</v>
       </c>
       <c r="C39">
-        <v>1.206733628578149E-07</v>
+        <v>0.004451545886695385</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0.9994655251502991</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>0.0002056228258879855</v>
+        <v>0.0006022296147421002</v>
       </c>
       <c r="B40">
-        <v>0.9999238848686218</v>
+        <v>0.9998602867126465</v>
       </c>
       <c r="C40">
-        <v>0.0006103392806835473</v>
+        <v>0.08579479902982712</v>
       </c>
       <c r="D40">
-        <v>0.9992732405662537</v>
+        <v>0.9837876558303833</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>0.0004009988042525947</v>
+        <v>0.0001212255810969509</v>
       </c>
       <c r="B41">
-        <v>0.9999048113822937</v>
+        <v>0.9999534487724304</v>
       </c>
       <c r="C41">
-        <v>3.483045475149993E-06</v>
+        <v>0.466886967420578</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0.9306966066360474</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>0.0002500255068298429</v>
+        <v>0.0001790060778148472</v>
       </c>
       <c r="B42">
-        <v>0.9999619126319885</v>
+        <v>0.9999534487724304</v>
       </c>
       <c r="C42">
-        <v>2.537660066082026E-06</v>
+        <v>0.3190890252590179</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0.9259754419326782</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>8.227544458350167E-05</v>
+        <v>2.45676619670121E-06</v>
       </c>
       <c r="B43">
-        <v>0.9999809861183167</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>5.638419224851532E-07</v>
+        <v>0.1105284839868546</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0.9461072683334351</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>2.270457298436668E-05</v>
+        <v>1.847836415436177E-06</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44">
-        <v>8.767211312488143E-08</v>
+        <v>0.1132524237036705</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0.947443425655365</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>0.0004820745089091361</v>
+        <v>0.0004547676362562925</v>
       </c>
       <c r="B45">
-        <v>0.9999428987503052</v>
+        <v>0.9998137354850769</v>
       </c>
       <c r="C45">
-        <v>1.518641283837496E-07</v>
+        <v>0.01490586157888174</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0.9962586760520935</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>0.0001530785812065005</v>
+        <v>0.0001494372118031606</v>
       </c>
       <c r="B46">
-        <v>0.9999428987503052</v>
+        <v>0.9999534487724304</v>
       </c>
       <c r="C46">
-        <v>2.28959137871243E-07</v>
+        <v>0.08132679760456085</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0.9711384177207947</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>0.0008504717843607068</v>
+        <v>0.0004402854247018695</v>
       </c>
       <c r="B47">
-        <v>0.9999238848686218</v>
+        <v>0.9999301433563232</v>
       </c>
       <c r="C47">
-        <v>3.12010740799451E-07</v>
+        <v>0.01216733176261187</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0.9958133101463318</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>0.000341077073244378</v>
+        <v>0.0003573191352188587</v>
       </c>
       <c r="B48">
-        <v>0.9999619126319885</v>
+        <v>0.9998835921287537</v>
       </c>
       <c r="C48">
-        <v>4.823482981919369E-07</v>
+        <v>0.005245896056294441</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0.9994655251502991</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>8.52015073178336E-05</v>
+        <v>9.431406215298921E-05</v>
       </c>
       <c r="B49">
-        <v>0.9999428987503052</v>
+        <v>0.9999766945838928</v>
       </c>
       <c r="C49">
-        <v>3.638583834231213E-08</v>
+        <v>0.1915923058986664</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0.9362195134162903</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>7.497555634472519E-05</v>
+        <v>2.520067027944606E-06</v>
       </c>
       <c r="B50">
-        <v>0.9999619126319885</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>2.746278227050425E-08</v>
+        <v>0.2152108550071716</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>0.9323000311851501</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>0.0002182240859838203</v>
+        <v>2.108103444697917E-06</v>
       </c>
       <c r="B51">
-        <v>0.9999048113822937</v>
+        <v>1</v>
       </c>
       <c r="C51">
-        <v>0.0002710481639951468</v>
+        <v>0.2482743561267853</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>0.9317655563354492</v>
       </c>
     </row>
   </sheetData>
